--- a/jpcore-r4/feature/改行テスト/StructureDefinition-JP-RelatedPerson.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-JP-RelatedPerson.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="268">
   <si>
     <t>Property</t>
   </si>
@@ -148,10 +148,6 @@
     <t>患者のケアに関与しているが、ヘルスケアの標的ではなく、ケアプロセスに正式な責任を負う人に関する情報。 / Information about a person that is involved in the care for a patient, but who is not the target of healthcare, nor has a formal responsibility in the care process.</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
@@ -196,208 +192,208 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t>RelatedPerson.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>RelatedPerson.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>拡張子は常にURLで切り片にされます。</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>RelatedPerson.meta.versionId</t>
+  </si>
+  <si>
+    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
+  </si>
+  <si>
+    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
+  </si>
+  <si>
+    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>RelatedPerson.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>リソースのバージョンが最後に変更されたとき</t>
+  </si>
+  <si>
+    <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
+  </si>
+  <si>
+    <t>この値はリソースが初めて作成される場合を除いて常に設定されています。サーバー/リソースマネージャーがこの値を設定します。クライアントが提供する値は関係ありません。これはHTTP Last-Modifiedに相当し、[read](http://hl7.org/fhir/R4/http.html#read)のインタラクションで同じ値を持つべきです。</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>RelatedPerson.meta.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+  </si>
+  <si>
+    <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
+  </si>
+  <si>
+    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
+この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>RelatedPerson.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>このリソースが適合を主張するプロファイル</t>
+  </si>
+  <si>
+    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
+  </si>
+  <si>
+    <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>RelatedPerson.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>このリソースに適用されたセキュリティラベル</t>
+  </si>
+  <si>
+    <t>このリソースにはセキュリティラベルが適用されています。これらのタグにより、特定のリソースが全体的なセキュリティポリシーやインフラストラクチャに関連付けられます。</t>
+  </si>
+  <si>
+    <t>セキュリティラベルは変更せずにリソースのバージョンを更新可能です。セキュリティラベルのリストはセットであり、一意性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>医療プライバシーおよびセキュリティ分類システムからのセキュリティラベル。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>RelatedPerson.meta.tag</t>
+  </si>
+  <si>
+    <t>このリソースに適用されたタグ</t>
+  </si>
+  <si>
+    <t>このリソースに適用されるタグです。タグは、リソースをプロセスやワークフローに識別し、関連付けるために使用することが意図されており、アプリケーションはリソースの意味を解釈する際にタグを考慮する必要はありません。</t>
+  </si>
+  <si>
+    <t>リソースの表示バージョンを変更することなく、タグを更新できます。タグのリストは集合です。ユニーク性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>RelatedPerson.implicitRules</t>
+  </si>
+  <si>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>RelatedPerson.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>エレメント相互参照のためのユニークID</t>
-  </si>
-  <si>
-    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>RelatedPerson.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>実装によって定義される追加コンテンツ</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
-  </si>
-  <si>
-    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>拡張子は常にURLで切り片にされます。</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>RelatedPerson.meta.versionId</t>
-  </si>
-  <si>
-    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
-  </si>
-  <si>
-    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
-  </si>
-  <si>
-    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>RelatedPerson.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>リソースのバージョンが最後に変更されたとき</t>
-  </si>
-  <si>
-    <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
-  </si>
-  <si>
-    <t>この値はリソースが初めて作成される場合を除いて常に設定されています。サーバー/リソースマネージャーがこの値を設定します。クライアントが提供する値は関係ありません。これはHTTP Last-Modifiedに相当し、[read](http://hl7.org/fhir/R4/http.html#read)のインタラクションで同じ値を持つべきです。</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>RelatedPerson.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
-  </si>
-  <si>
-    <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
-  </si>
-  <si>
-    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
-この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>RelatedPerson.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>このリソースが適合を主張するプロファイル</t>
-  </si>
-  <si>
-    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
-  </si>
-  <si>
-    <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>RelatedPerson.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>このリソースに適用されたセキュリティラベル</t>
-  </si>
-  <si>
-    <t>このリソースにはセキュリティラベルが適用されています。これらのタグにより、特定のリソースが全体的なセキュリティポリシーやインフラストラクチャに関連付けられます。</t>
-  </si>
-  <si>
-    <t>セキュリティラベルは変更せずにリソースのバージョンを更新可能です。セキュリティラベルのリストはセットであり、一意性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>医療プライバシーおよびセキュリティ分類システムからのセキュリティラベル。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>RelatedPerson.meta.tag</t>
-  </si>
-  <si>
-    <t>このリソースに適用されたタグ</t>
-  </si>
-  <si>
-    <t>このリソースに適用されるタグです。タグは、リソースをプロセスやワークフローに識別し、関連付けるために使用することが意図されており、アプリケーションはリソースの意味を解釈する際にタグを考慮する必要はありません。</t>
-  </si>
-  <si>
-    <t>リソースの表示バージョンを変更することなく、タグを更新できます。タグのリストは集合です。ユニーク性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>RelatedPerson.implicitRules</t>
-  </si>
-  <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
   </si>
   <si>
     <t>RelatedPerson.language</t>
@@ -1325,10 +1321,10 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="AK1" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>37</v>
@@ -1339,10 +1335,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1353,28 +1349,28 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1424,13 +1420,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -1450,10 +1446,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1464,25 +1460,25 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1533,19 +1529,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -1559,10 +1555,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1573,7 +1569,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
@@ -1585,13 +1581,13 @@
         <v>37</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1642,13 +1638,13 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
@@ -1657,7 +1653,7 @@
         <v>37</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>37</v>
@@ -1668,14 +1664,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -1694,16 +1690,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1741,19 +1737,19 @@
         <v>37</v>
       </c>
       <c r="AB5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="AC5" t="s" s="2">
+      <c r="AF5" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
@@ -1765,10 +1761,10 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>37</v>
@@ -1779,10 +1775,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1793,28 +1789,28 @@
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="L6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1864,19 +1860,19 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
@@ -1890,10 +1886,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1904,28 +1900,28 @@
         <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="I7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1975,19 +1971,19 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>37</v>
@@ -2001,10 +1997,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2015,28 +2011,28 @@
         <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="K8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2086,19 +2082,19 @@
         <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -2112,10 +2108,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2135,19 +2131,19 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2197,7 +2193,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2209,7 +2205,7 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -2223,10 +2219,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2246,19 +2242,19 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2284,31 +2280,31 @@
         <v>37</v>
       </c>
       <c r="X10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="Z10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="Y10" t="s" s="2">
+      <c r="AA10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -2320,7 +2316,7 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>37</v>
@@ -2334,10 +2330,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2357,19 +2353,19 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2395,31 +2391,31 @@
         <v>37</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -2431,7 +2427,7 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>37</v>
@@ -2445,10 +2441,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2459,28 +2455,28 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2530,19 +2526,19 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>37</v>
@@ -2556,10 +2552,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2570,7 +2566,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>37</v>
@@ -2582,16 +2578,16 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2617,43 +2613,43 @@
         <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>130</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>37</v>
@@ -2667,21 +2663,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
@@ -2693,16 +2689,16 @@
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2752,22 +2748,22 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>37</v>
@@ -2778,14 +2774,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2804,16 +2800,16 @@
         <v>37</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2863,7 +2859,7 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
@@ -2878,7 +2874,7 @@
         <v>37</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>37</v>
@@ -2889,14 +2885,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2915,16 +2911,16 @@
         <v>37</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2974,7 +2970,7 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
@@ -2986,10 +2982,10 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>37</v>
@@ -3000,14 +2996,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3020,25 +3016,25 @@
         <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>37</v>
@@ -3087,7 +3083,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
@@ -3099,10 +3095,10 @@
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>37</v>
@@ -3113,10 +3109,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3136,20 +3132,20 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>37</v>
@@ -3198,7 +3194,7 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
@@ -3210,24 +3206,24 @@
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>165</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3238,100 +3234,100 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="O19" t="s" s="2">
+      <c r="P19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q19" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="P19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q19" t="s" s="2">
+      <c r="R19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="R19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>37</v>
@@ -3339,10 +3335,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3350,32 +3346,32 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>37</v>
@@ -3424,36 +3420,36 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3473,20 +3469,20 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>37</v>
@@ -3511,13 +3507,13 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
@@ -3535,7 +3531,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
@@ -3547,24 +3543,24 @@
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3584,20 +3580,20 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>37</v>
@@ -3646,7 +3642,7 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
@@ -3658,24 +3654,24 @@
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3695,22 +3691,22 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>37</v>
@@ -3759,7 +3755,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -3771,24 +3767,24 @@
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3799,29 +3795,29 @@
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="K24" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>37</v>
@@ -3846,60 +3842,60 @@
         <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Z24" t="s" s="2">
+      <c r="AA24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AA24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3910,25 +3906,25 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="K25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3979,22 +3975,22 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>37</v>
@@ -4005,10 +4001,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4028,20 +4024,20 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>37</v>
@@ -4090,7 +4086,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -4102,24 +4098,24 @@
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4142,17 +4138,17 @@
         <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>37</v>
@@ -4201,7 +4197,7 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -4213,24 +4209,24 @@
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4241,7 +4237,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>37</v>
@@ -4253,13 +4249,13 @@
         <v>37</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4310,25 +4306,25 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>37</v>
@@ -4336,10 +4332,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4362,19 +4358,19 @@
         <v>37</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>37</v>
@@ -4423,7 +4419,7 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -4435,10 +4431,10 @@
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>37</v>
@@ -4449,10 +4445,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4463,7 +4459,7 @@
         <v>38</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>37</v>
@@ -4475,13 +4471,13 @@
         <v>37</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4532,13 +4528,13 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>37</v>
@@ -4547,7 +4543,7 @@
         <v>37</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>37</v>
@@ -4558,14 +4554,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4584,16 +4580,16 @@
         <v>37</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4643,7 +4639,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
@@ -4655,10 +4651,10 @@
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>37</v>
@@ -4669,14 +4665,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4689,25 +4685,25 @@
         <v>37</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="N32" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>37</v>
@@ -4756,7 +4752,7 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
@@ -4768,10 +4764,10 @@
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>37</v>
@@ -4782,10 +4778,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4793,10 +4789,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>37</v>
@@ -4808,19 +4804,19 @@
         <v>37</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>37</v>
@@ -4845,14 +4841,14 @@
         <v>37</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="AA33" t="s" s="2">
         <v>37</v>
       </c>
@@ -4869,22 +4865,22 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>37</v>
@@ -4895,10 +4891,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4909,7 +4905,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>37</v>
@@ -4921,19 +4917,19 @@
         <v>37</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>37</v>
@@ -4982,22 +4978,22 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>37</v>
